--- a/BowlScoreSolution/ScoreBowlProblem/resource/TestData.xlsx
+++ b/BowlScoreSolution/ScoreBowlProblem/resource/TestData.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradeep\Desktop\Working Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeveloperSpace\EclipseWorkspace\playarea\ScoreBowlProblem\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,48 +24,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
-  <si>
-    <t>Roll 1</t>
-  </si>
-  <si>
-    <t>Roll 2</t>
-  </si>
-  <si>
-    <t>Bonus Roll 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
   <si>
     <t>Bonus Roll 2</t>
   </si>
   <si>
-    <t>Frames</t>
+    <t xml:space="preserve">FRAME </t>
   </si>
   <si>
-    <t>Score</t>
+    <t>ROLL 1</t>
   </si>
   <si>
-    <t>TOTAL SCORE</t>
+    <t>ROLL2</t>
   </si>
   <si>
-    <t>testStrikeSpareFewKnocksCombo</t>
+    <t>BONUS Roll 1</t>
   </si>
   <si>
-    <t>testAllRollStrikeAndExtraRollStrike</t>
+    <t>SCORE</t>
   </si>
   <si>
-    <t>testAllRollSpareAndExtraRollNot</t>
+    <t>testZeroScore</t>
   </si>
   <si>
-    <t>testNoRollsStrikeOrSpare</t>
+    <t>testAllStrike</t>
   </si>
   <si>
-    <t>testAllRollSpareAndAllExtraRollSpare</t>
+    <t>testAllSpare</t>
   </si>
   <si>
-    <t>testAllRollsKnockZero</t>
+    <t>testNoStrikeAndNoSpare</t>
   </si>
   <si>
-    <t>testIncorrectPinsCountToScoreCard</t>
+    <t>testTenthStrike</t>
+  </si>
+  <si>
+    <t>testTenthSpare</t>
+  </si>
+  <si>
+    <t>testMixOfFewKnocksStrikeAndSpare</t>
   </si>
 </sst>
 </file>
@@ -90,7 +87,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -136,9 +133,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,63 +416,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -484,31 +479,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2">
-        <f>IF(B3=10,(SUM(B3+(2*(D3+E3)))),(IF((B3+C3)=10,(SUM(B3+C3+D3+(D3+E3))),(B3+C3))))</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="2">
-        <f>IF(J3=10,(SUM(J3+(2*(L3+M3)))),(IF((J3+K3)=10,(SUM(J3+K3+L3+(L3+M3))),(J3+K3))))</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -516,31 +509,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F12" si="0">IF(B4=10,(SUM(B4+(2*(D4+E4)))),(IF((B4+C4)=10,(SUM(B4+C4+D4+(D4+E4))),(B4+C4))))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="J4" s="1">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="2">
-        <f t="shared" ref="N4:N11" si="1">IF(J4=10,(SUM(J4+(2*(L4+M4)))),(IF((J4+K4)=10,(SUM(J4+K4+L4+(L4+M4))),(J4+K4))))</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -553,30 +544,24 @@
       <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -584,31 +569,27 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
       </c>
       <c r="J6" s="1">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -616,31 +597,27 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
       </c>
       <c r="J7" s="1">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -648,31 +625,29 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1">
         <v>6</v>
       </c>
       <c r="J8" s="1">
-        <v>10</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -680,35 +655,27 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1">
         <v>7</v>
       </c>
       <c r="J9" s="1">
-        <v>10</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -716,31 +683,29 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I10" s="1">
         <v>8</v>
       </c>
       <c r="J10" s="1">
-        <v>10</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -748,33 +713,29 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1">
         <v>9</v>
       </c>
       <c r="J11" s="1">
-        <v>10</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -782,161 +743,158 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2">
-        <f>B12+C12+D12+E12</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <v>10</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1">
-        <v>10</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="2">
-        <f>J12+K12+L12+M12</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E13" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F13" s="5">
         <f>SUM(F3:F12)</f>
-        <v>152</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="N13" s="5">
         <f>SUM(N3:N12)</f>
-        <v>300</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>11</v>
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2">
+        <v>30</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>9</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="2">
-        <f>IF(B18=10,(SUM(B18+(2*(D18+E18)))),(IF((B18+C18)=10,(SUM(B18+C18+D18+(D18+E18))),(B18+C18))))</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K18" s="1">
-        <v>4</v>
-      </c>
-      <c r="L18" s="1">
-        <v>6</v>
-      </c>
-      <c r="M18" s="1">
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
       <c r="N18" s="2">
-        <f>IF(J18=10,(SUM(J18+(2*(L18+M18)))),(IF((J18+K18)=10,(SUM(J18+K18+L18+(L18+M18))),(J18+K18))))</f>
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="2">
-        <f t="shared" ref="F19:F26" si="2">IF(B19=10,(SUM(B19+(2*(D19+E19)))),(IF((B19+C19)=10,(SUM(B19+C19+D19+(D19+E19))),(B19+C19))))</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1">
         <v>3</v>
@@ -944,561 +902,456 @@
       <c r="K19" s="1">
         <v>7</v>
       </c>
-      <c r="L19" s="1">
-        <v>5</v>
-      </c>
-      <c r="M19" s="1">
-        <v>5</v>
-      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="2">
-        <f t="shared" ref="N19:N26" si="3">IF(J19=10,(SUM(J19+(2*(L19+M19)))),(IF((J19+K19)=10,(SUM(J19+K19+L19+(L19+M19))),(J19+K19))))</f>
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="2">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K20" s="1">
-        <v>8</v>
-      </c>
-      <c r="L20" s="1">
-        <v>5</v>
-      </c>
-      <c r="M20" s="1">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="2">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="2">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1">
-        <v>3</v>
-      </c>
-      <c r="M21" s="1">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
       <c r="N21" s="2">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>9</v>
-      </c>
-      <c r="D22" s="1">
-        <v>5</v>
-      </c>
-      <c r="E22" s="1">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="2">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I22" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K22" s="1">
-        <v>9</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1</v>
-      </c>
-      <c r="M22" s="1">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
       <c r="N22" s="2">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="2">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I23" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J23" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K23" s="1">
-        <v>5</v>
-      </c>
-      <c r="L23" s="1">
-        <v>5</v>
-      </c>
-      <c r="M23" s="1">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
       <c r="N23" s="2">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="2">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I24" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J24" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K24" s="1">
-        <v>4</v>
-      </c>
-      <c r="L24" s="1">
-        <v>6</v>
-      </c>
-      <c r="M24" s="1">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
       <c r="N24" s="2">
-        <f t="shared" si="3"/>
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2">
+        <v>30</v>
+      </c>
+      <c r="I25" s="1">
+        <v>9</v>
+      </c>
+      <c r="J25" s="1">
         <v>8</v>
       </c>
-      <c r="B25" s="1">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>4</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="I25" s="1">
-        <v>8</v>
-      </c>
-      <c r="J25" s="1">
-        <v>5</v>
-      </c>
       <c r="K25" s="1">
-        <v>5</v>
-      </c>
-      <c r="L25" s="1">
-        <v>7</v>
-      </c>
-      <c r="M25" s="1">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
       <c r="N25" s="2">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I26" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J26" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K26" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1">
+        <v>9</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F27" s="5">
+        <f>SUM(F17:F26)</f>
+        <v>300</v>
+      </c>
+      <c r="N27" s="5">
+        <f>SUM(N17:N26)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
         <v>8</v>
       </c>
-      <c r="M26" s="1">
-        <v>2</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>10</v>
-      </c>
-      <c r="B27" s="1">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2">
-        <f>B27+C27+D27+E27</f>
-        <v>15</v>
-      </c>
-      <c r="I27" s="1">
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
-        <v>7</v>
-      </c>
-      <c r="K27" s="1">
-        <v>3</v>
-      </c>
-      <c r="L27" s="1">
-        <v>6</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="2">
-        <f>J27+K27+L27+M27</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="5">
-        <f>SUM(F18:F27)</f>
-        <v>228</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28" s="5">
-        <f>SUM(N18:N27)</f>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2">
+        <v>9</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>8</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="2">
-        <f>IF(B33=10,(SUM(B33+(2*(D33+E33)))),(IF((B33+C33)=10,(SUM(B33+C33+D33+(D33+E33))),(B33+C33))))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="2">
-        <f>IF(J33=10,(SUM(J33+(2*(L33+M33)))),(IF((J33+K33)=10,(SUM(J33+K33+L33+(L33+M33))),(J33+K33))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="2">
-        <f t="shared" ref="F34:F41" si="4">IF(B34=10,(SUM(B34+(2*(D34+E34)))),(IF((B34+C34)=10,(SUM(B34+C34+D34+(D34+E34))),(B34+C34))))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="2">
-        <f t="shared" ref="N34:N41" si="5">IF(J34=10,(SUM(J34+(2*(L34+M34)))),(IF((J34+K34)=10,(SUM(J34+K34+L34+(L34+M34))),(J34+K34))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="2">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I36" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I37" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -1506,63 +1359,59 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="2">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I38" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I39" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
@@ -1570,267 +1419,258 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I40" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I41" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1">
+        <v>4</v>
+      </c>
+      <c r="M41" s="1">
+        <v>7</v>
+      </c>
       <c r="N41" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>10</v>
-      </c>
-      <c r="B42" s="1">
-        <v>5</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="2">
-        <f>B42+C42+D42+E42</f>
+        <f>SUM(J41:M41)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F42" s="5">
+        <f>SUM(F32:F41)</f>
+        <v>70</v>
+      </c>
+      <c r="N42" s="5">
+        <f>SUM(N32:N41)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
         <v>8</v>
       </c>
-      <c r="I42" s="1">
-        <v>10</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="2">
-        <f>J42+K42+L42+M42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="5">
-        <f>SUM(F33:F42)</f>
-        <v>68</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N43" s="5">
-        <f>SUM(N33:N42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>13</v>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>1</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="2">
-        <f>IF(B48=10,(SUM(B48+(2*(D48+E48)))),(IF((B48+C48)=10,(SUM(B48+C48+D48+(D48+E48))),(B48+C48))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>2</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B49" s="1">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="2">
-        <f t="shared" ref="F49:F56" si="6">IF(B49=10,(SUM(B49+(2*(D49+E49)))),(IF((B49+C49)=10,(SUM(B49+C49+D49+(D49+E49))),(B49+C49))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>3</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>4</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>5</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>6</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B53" s="1">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>7</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>8</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>9</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>10</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="2">
-        <f>B57+C57+D57+E57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="5">
-        <f>SUM(F48:F57)</f>
-        <v>0</v>
+        <f>SUM(B55:E55)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F56" s="5">
+        <f>SUM(F46:F55)</f>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
